--- a/testData/loginData.xlsx
+++ b/testData/loginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crane\SDET\JAVA MODULE\Automation-Framework-Practice\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FC5EED-E4A1-46BD-83AD-FE372DE04861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91A38E3-4BC2-4228-B0D0-A3F5E92D6835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +59,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -90,7 +97,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -375,7 +382,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,7 +416,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{419080E3-B777-4CAB-89A4-E8241F9AB4F6}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{08A5A8E4-C34F-44E2-A616-F68161244741}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
